--- a/MSim/App_Data/GameModel/FMCG.xlsx
+++ b/MSim/App_Data/GameModel/FMCG.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="1836" windowWidth="20112" windowHeight="8016" tabRatio="881" firstSheet="5" activeTab="7"/>
+    <workbookView xWindow="240" yWindow="3036" windowWidth="20112" windowHeight="8016" tabRatio="881" firstSheet="5" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="hidden" r:id="rId1"/>
@@ -8508,7 +8508,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -8535,9 +8534,7 @@
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="1"/>
             <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
-              </c:ext>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
             </c:extLst>
           </c:dLbls>
           <c:cat>
@@ -8584,7 +8581,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -8626,7 +8622,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -8664,9 +8659,7 @@
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="1"/>
             <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
-              </c:ext>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
             </c:extLst>
           </c:dLbls>
           <c:cat>
@@ -8786,7 +8779,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -8913,12 +8905,12 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:shape val="cylinder"/>
-        <c:axId val="-1046954048"/>
-        <c:axId val="-1046973632"/>
+        <c:axId val="-652232928"/>
+        <c:axId val="-652216064"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="-1046954048"/>
+        <c:axId val="-652232928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8928,7 +8920,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-1046973632"/>
+        <c:crossAx val="-652216064"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8936,7 +8928,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1046973632"/>
+        <c:axId val="-652216064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8947,7 +8939,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-1046954048"/>
+        <c:crossAx val="-652232928"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8979,7 +8971,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -9106,12 +9097,12 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:shape val="cylinder"/>
-        <c:axId val="-1046966016"/>
-        <c:axId val="-1046977984"/>
+        <c:axId val="-652233472"/>
+        <c:axId val="-652214976"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="-1046966016"/>
+        <c:axId val="-652233472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9121,7 +9112,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-1046977984"/>
+        <c:crossAx val="-652214976"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -9129,7 +9120,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1046977984"/>
+        <c:axId val="-652214976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9140,7 +9131,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-1046966016"/>
+        <c:crossAx val="-652233472"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9287,12 +9278,12 @@
         </c:dLbls>
         <c:gapWidth val="75"/>
         <c:shape val="box"/>
-        <c:axId val="-1046977440"/>
-        <c:axId val="-1046961664"/>
+        <c:axId val="-652213888"/>
+        <c:axId val="-652232384"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="-1046977440"/>
+        <c:axId val="-652213888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9302,7 +9293,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-1046961664"/>
+        <c:crossAx val="-652232384"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -9310,7 +9301,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1046961664"/>
+        <c:axId val="-652232384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9320,7 +9311,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="-1046977440"/>
+        <c:crossAx val="-652213888"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -66215,8 +66206,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:AH91"/>
   <sheetViews>
-    <sheetView showFormulas="1" showGridLines="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B45" sqref="B45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
